--- a/schema/STATISTICS_INSTANCE.xlsx
+++ b/schema/STATISTICS_INSTANCE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Sunbee_working\web\schema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\refs\rails_game_web\schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="STATISTICS_INSTANCE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="44">
   <si>
     <t>Int64</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,58 +85,122 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20150917161200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20150917171200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20150917181200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20150917191200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20150917201200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20150917211200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20150917221200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20150917231200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20150918001200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20150918011200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>USER_LV</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>유저 레벨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160101000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160101000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160101000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160101000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160102000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160103000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160102000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160103000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160104000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160105000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160106000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160107000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160108000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160109000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160110000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETENTION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST_BU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL_DIAMOND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL_MONEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP_COUNT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP_RAITING</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,19 +640,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A4:A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="1013" width="8.625"/>
   </cols>
   <sheetData>
@@ -606,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>12</v>
@@ -646,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>13</v>
@@ -666,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -683,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -700,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -717,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -734,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -751,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -768,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -785,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -802,7 +866,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -819,7 +883,1887 @@
         <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>500</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>600</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>700</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>200</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1">
+        <v>300</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>400</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1">
+        <v>900</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1">
+        <v>500</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1">
+        <v>600</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1">
+        <v>700</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1">
+        <v>200</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1">
+        <v>300</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1">
+        <v>400</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="1">
+        <v>9</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1">
+        <v>900</v>
+      </c>
+      <c r="E33" s="1">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1">
+        <v>100</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1">
+        <v>200</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1">
+        <v>300</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1">
+        <v>400</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1">
+        <v>500</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1">
+        <v>600</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="1">
+        <v>700</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1">
+        <v>800</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="1">
+        <v>900</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1">
+        <v>100</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1">
+        <v>200</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1">
+        <v>300</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1">
+        <v>400</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="1">
+        <v>500</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1">
+        <v>600</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="1">
+        <v>700</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="1">
+        <v>800</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="1">
+        <v>900</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="1">
+        <v>100</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="1">
+        <v>200</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="1">
+        <v>300</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="1">
+        <v>400</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="1">
+        <v>500</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="1">
+        <v>600</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="1">
+        <v>700</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="1">
+        <v>800</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="1">
+        <v>900</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="1">
+        <v>100</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="1">
+        <v>200</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="1">
+        <v>300</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="1">
+        <v>400</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="1">
+        <v>500</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="1">
+        <v>600</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="1">
+        <v>700</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="1">
+        <v>800</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="1">
+        <v>900</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="1">
+        <v>100</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="1">
+        <v>200</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="1">
+        <v>300</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="1">
+        <v>400</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="1">
+        <v>500</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="1">
+        <v>600</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="1">
+        <v>700</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="1">
+        <v>800</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" s="1">
+        <v>900</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>80</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>81</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="1">
+        <v>100</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="1">
+        <v>200</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="1">
+        <v>300</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="1">
+        <v>400</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>85</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="1">
+        <v>500</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>86</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="1">
+        <v>600</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>87</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" s="1">
+        <v>700</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>88</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" s="1">
+        <v>800</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>89</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="1">
+        <v>900</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>90</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="1">
+        <v>100</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="1">
+        <v>200</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>93</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="1">
+        <v>300</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>94</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="1">
+        <v>400</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>95</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" s="1">
+        <v>500</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" s="1">
+        <v>600</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="1">
+        <v>700</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="1">
+        <v>800</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" s="1">
+        <v>900</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>100</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>101</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>102</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>103</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>104</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>105</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>106</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>107</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>108</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>109</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="1">
+        <v>9000000</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>110</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>111</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>112</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>113</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>114</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C117" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>115</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C118" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>116</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C119" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>117</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>118</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>119</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" s="1">
+        <v>9000000</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>120</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C123" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>121</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124" s="1">
+        <v>100</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>122</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C125" s="1">
+        <v>200</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>123</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C126" s="1">
+        <v>300</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>124</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" s="1">
+        <v>400</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>125</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="1">
+        <v>500</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>126</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129" s="1">
+        <v>600</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>127</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="1">
+        <v>700</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>128</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131" s="1">
+        <v>800</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>129</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" s="1">
+        <v>900</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>130</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>131</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" s="1">
+        <v>100</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>132</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" s="1">
+        <v>200</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>133</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" s="1">
+        <v>300</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>134</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C137" s="1">
+        <v>400</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>135</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C138" s="1">
+        <v>500</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>136</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C139" s="1">
+        <v>600</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>137</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C140" s="1">
+        <v>700</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>138</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C141" s="1">
+        <v>800</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>139</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142" s="1">
+        <v>900</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>140</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/schema/STATISTICS_INSTANCE.xlsx
+++ b/schema/STATISTICS_INSTANCE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="44">
   <si>
     <t>Int64</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -640,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A4:A143"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J172" sqref="J172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1236,6 +1236,9 @@
       <c r="C34" s="1">
         <v>100</v>
       </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
       <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
@@ -1250,6 +1253,9 @@
       <c r="C35" s="1">
         <v>200</v>
       </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
       <c r="F35" s="7" t="s">
         <v>26</v>
       </c>
@@ -1264,6 +1270,9 @@
       <c r="C36" s="1">
         <v>300</v>
       </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
       <c r="F36" s="7" t="s">
         <v>27</v>
       </c>
@@ -1278,6 +1287,9 @@
       <c r="C37" s="1">
         <v>400</v>
       </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
       <c r="F37" s="7" t="s">
         <v>28</v>
       </c>
@@ -1292,6 +1304,9 @@
       <c r="C38" s="1">
         <v>500</v>
       </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
       <c r="F38" s="7" t="s">
         <v>29</v>
       </c>
@@ -1306,6 +1321,9 @@
       <c r="C39" s="1">
         <v>600</v>
       </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
       <c r="F39" s="7" t="s">
         <v>30</v>
       </c>
@@ -1320,6 +1338,9 @@
       <c r="C40" s="1">
         <v>700</v>
       </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
       <c r="F40" s="7" t="s">
         <v>31</v>
       </c>
@@ -1334,6 +1355,9 @@
       <c r="C41" s="1">
         <v>800</v>
       </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
       <c r="F41" s="7" t="s">
         <v>32</v>
       </c>
@@ -1348,6 +1372,9 @@
       <c r="C42" s="1">
         <v>900</v>
       </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
       <c r="F42" s="7" t="s">
         <v>33</v>
       </c>
@@ -1362,6 +1389,9 @@
       <c r="C43" s="1">
         <v>1000</v>
       </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
       <c r="F43" s="7" t="s">
         <v>34</v>
       </c>
@@ -1371,13 +1401,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1">
-        <v>100</v>
+        <v>500</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1385,10 +1418,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1">
-        <v>200</v>
+        <v>550</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>26</v>
@@ -1399,10 +1435,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46" s="1">
-        <v>300</v>
+        <v>600</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>27</v>
@@ -1413,10 +1452,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1">
         <v>400</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>28</v>
@@ -1427,10 +1469,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1">
-        <v>500</v>
+        <v>450</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>29</v>
@@ -1441,10 +1486,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1">
-        <v>600</v>
+        <v>700</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>30</v>
@@ -1455,10 +1503,13 @@
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1">
-        <v>700</v>
+        <v>300</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>31</v>
@@ -1469,10 +1520,13 @@
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1">
-        <v>800</v>
+        <v>350</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>32</v>
@@ -1483,10 +1537,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1">
-        <v>900</v>
+        <v>800</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>33</v>
@@ -1497,10 +1554,13 @@
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1">
-        <v>1000</v>
+        <v>850</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>34</v>
@@ -1511,13 +1571,16 @@
         <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1">
-        <v>100</v>
+        <v>500</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1525,10 +1588,13 @@
         <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1">
-        <v>200</v>
+        <v>550</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>26</v>
@@ -1539,10 +1605,13 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1">
-        <v>300</v>
+        <v>600</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>27</v>
@@ -1553,10 +1622,13 @@
         <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C57" s="1">
         <v>400</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>28</v>
@@ -1567,10 +1639,13 @@
         <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1">
-        <v>500</v>
+        <v>450</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>29</v>
@@ -1581,10 +1656,13 @@
         <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C59" s="1">
-        <v>600</v>
+        <v>700</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>30</v>
@@ -1595,10 +1673,13 @@
         <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C60" s="1">
-        <v>700</v>
+        <v>300</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>31</v>
@@ -1609,10 +1690,13 @@
         <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C61" s="1">
-        <v>800</v>
+        <v>350</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>32</v>
@@ -1623,10 +1707,13 @@
         <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C62" s="1">
-        <v>900</v>
+        <v>800</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>33</v>
@@ -1637,10 +1724,13 @@
         <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C63" s="1">
-        <v>1000</v>
+        <v>850</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>34</v>
@@ -1651,13 +1741,16 @@
         <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1">
-        <v>100</v>
+        <v>500</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1665,10 +1758,13 @@
         <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C65" s="1">
-        <v>200</v>
+        <v>550</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>26</v>
@@ -1679,10 +1775,13 @@
         <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C66" s="1">
-        <v>300</v>
+        <v>600</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>27</v>
@@ -1693,10 +1792,13 @@
         <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C67" s="1">
         <v>400</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>28</v>
@@ -1707,10 +1809,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C68" s="1">
-        <v>500</v>
+        <v>450</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>29</v>
@@ -1721,10 +1826,13 @@
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C69" s="1">
-        <v>600</v>
+        <v>700</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>30</v>
@@ -1735,10 +1843,13 @@
         <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C70" s="1">
-        <v>700</v>
+        <v>300</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>31</v>
@@ -1749,10 +1860,13 @@
         <v>68</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C71" s="1">
-        <v>800</v>
+        <v>350</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>32</v>
@@ -1763,10 +1877,13 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C72" s="1">
-        <v>900</v>
+        <v>800</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>33</v>
@@ -1777,10 +1894,13 @@
         <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C73" s="1">
-        <v>1000</v>
+        <v>850</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>34</v>
@@ -1791,13 +1911,16 @@
         <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1">
-        <v>100</v>
+        <v>500</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1805,10 +1928,13 @@
         <v>72</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C75" s="1">
-        <v>200</v>
+        <v>550</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>26</v>
@@ -1819,10 +1945,13 @@
         <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C76" s="1">
-        <v>300</v>
+        <v>600</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>27</v>
@@ -1833,10 +1962,13 @@
         <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C77" s="1">
         <v>400</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>28</v>
@@ -1847,10 +1979,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C78" s="1">
-        <v>500</v>
+        <v>450</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>29</v>
@@ -1861,10 +1996,13 @@
         <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C79" s="1">
-        <v>600</v>
+        <v>700</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>30</v>
@@ -1875,10 +2013,13 @@
         <v>77</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C80" s="1">
-        <v>700</v>
+        <v>300</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>31</v>
@@ -1889,10 +2030,13 @@
         <v>78</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C81" s="1">
-        <v>800</v>
+        <v>350</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>32</v>
@@ -1903,10 +2047,13 @@
         <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C82" s="1">
-        <v>900</v>
+        <v>800</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>33</v>
@@ -1917,10 +2064,13 @@
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C83" s="1">
-        <v>1000</v>
+        <v>850</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>34</v>
@@ -1931,10 +2081,13 @@
         <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C84" s="1">
         <v>100</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>21</v>
@@ -1945,10 +2098,13 @@
         <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C85" s="1">
         <v>200</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>26</v>
@@ -1959,10 +2115,13 @@
         <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C86" s="1">
         <v>300</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>27</v>
@@ -1973,10 +2132,13 @@
         <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C87" s="1">
         <v>400</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>28</v>
@@ -1987,10 +2149,13 @@
         <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C88" s="1">
         <v>500</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>29</v>
@@ -2001,10 +2166,13 @@
         <v>86</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C89" s="1">
         <v>600</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>30</v>
@@ -2015,10 +2183,13 @@
         <v>87</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C90" s="1">
         <v>700</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>31</v>
@@ -2029,10 +2200,13 @@
         <v>88</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C91" s="1">
         <v>800</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>32</v>
@@ -2043,10 +2217,13 @@
         <v>89</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C92" s="1">
         <v>900</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>33</v>
@@ -2057,10 +2234,13 @@
         <v>90</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C93" s="1">
         <v>1000</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>34</v>
@@ -2071,10 +2251,13 @@
         <v>91</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C94" s="1">
         <v>100</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>21</v>
@@ -2085,10 +2268,13 @@
         <v>92</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C95" s="1">
         <v>200</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>26</v>
@@ -2099,10 +2285,13 @@
         <v>93</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C96" s="1">
         <v>300</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>27</v>
@@ -2113,10 +2302,13 @@
         <v>94</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C97" s="1">
         <v>400</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>28</v>
@@ -2127,10 +2319,13 @@
         <v>95</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C98" s="1">
         <v>500</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>29</v>
@@ -2141,10 +2336,13 @@
         <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C99" s="1">
         <v>600</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>30</v>
@@ -2155,10 +2353,13 @@
         <v>97</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C100" s="1">
         <v>700</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>31</v>
@@ -2169,10 +2370,13 @@
         <v>98</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C101" s="1">
         <v>800</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>32</v>
@@ -2183,10 +2387,13 @@
         <v>99</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C102" s="1">
         <v>900</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>33</v>
@@ -2197,10 +2404,13 @@
         <v>100</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C103" s="1">
         <v>1000</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>34</v>
@@ -2211,10 +2421,13 @@
         <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C104" s="1">
-        <v>1000000</v>
+        <v>100</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>21</v>
@@ -2225,10 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C105" s="1">
-        <v>2000000</v>
+        <v>200</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>26</v>
@@ -2239,10 +2455,13 @@
         <v>103</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C106" s="1">
-        <v>3000000</v>
+        <v>300</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>27</v>
@@ -2253,10 +2472,13 @@
         <v>104</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C107" s="1">
-        <v>4000000</v>
+        <v>400</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>28</v>
@@ -2267,10 +2489,13 @@
         <v>105</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C108" s="1">
-        <v>5000000</v>
+        <v>500</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>29</v>
@@ -2281,10 +2506,13 @@
         <v>106</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C109" s="1">
-        <v>6000000</v>
+        <v>600</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>30</v>
@@ -2295,10 +2523,13 @@
         <v>107</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C110" s="1">
-        <v>7000000</v>
+        <v>700</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>31</v>
@@ -2309,10 +2540,13 @@
         <v>108</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C111" s="1">
-        <v>8000000</v>
+        <v>800</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>32</v>
@@ -2323,10 +2557,13 @@
         <v>109</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C112" s="1">
-        <v>9000000</v>
+        <v>900</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>33</v>
@@ -2337,10 +2574,13 @@
         <v>110</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C113" s="1">
-        <v>10000000</v>
+        <v>1000</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>34</v>
@@ -2351,10 +2591,13 @@
         <v>111</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C114" s="1">
-        <v>1000000</v>
+        <v>100</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>21</v>
@@ -2365,10 +2608,13 @@
         <v>112</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C115" s="1">
-        <v>2000000</v>
+        <v>200</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>26</v>
@@ -2379,10 +2625,13 @@
         <v>113</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C116" s="1">
-        <v>3000000</v>
+        <v>300</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>27</v>
@@ -2393,10 +2642,13 @@
         <v>114</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C117" s="1">
-        <v>4000000</v>
+        <v>400</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>28</v>
@@ -2407,10 +2659,13 @@
         <v>115</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C118" s="1">
-        <v>5000000</v>
+        <v>500</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>29</v>
@@ -2421,10 +2676,13 @@
         <v>116</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C119" s="1">
-        <v>6000000</v>
+        <v>600</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>30</v>
@@ -2435,10 +2693,13 @@
         <v>117</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C120" s="1">
-        <v>7000000</v>
+        <v>700</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>31</v>
@@ -2449,10 +2710,13 @@
         <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C121" s="1">
-        <v>8000000</v>
+        <v>800</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>32</v>
@@ -2463,10 +2727,13 @@
         <v>119</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C122" s="1">
-        <v>9000000</v>
+        <v>900</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>33</v>
@@ -2477,10 +2744,13 @@
         <v>120</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C123" s="1">
-        <v>10000000</v>
+        <v>1000</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>34</v>
@@ -2491,10 +2761,13 @@
         <v>121</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C124" s="1">
         <v>100</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>21</v>
@@ -2505,10 +2778,13 @@
         <v>122</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C125" s="1">
         <v>200</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>26</v>
@@ -2519,10 +2795,13 @@
         <v>123</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C126" s="1">
         <v>300</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>27</v>
@@ -2533,10 +2812,13 @@
         <v>124</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C127" s="1">
         <v>400</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>28</v>
@@ -2547,10 +2829,13 @@
         <v>125</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C128" s="1">
         <v>500</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>29</v>
@@ -2561,10 +2846,13 @@
         <v>126</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C129" s="1">
         <v>600</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>30</v>
@@ -2575,10 +2863,13 @@
         <v>127</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C130" s="1">
         <v>700</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>31</v>
@@ -2589,10 +2880,13 @@
         <v>128</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C131" s="1">
         <v>800</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>32</v>
@@ -2603,10 +2897,13 @@
         <v>129</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C132" s="1">
         <v>900</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>33</v>
@@ -2617,10 +2914,13 @@
         <v>130</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C133" s="1">
         <v>1000</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>34</v>
@@ -2631,10 +2931,13 @@
         <v>131</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C134" s="1">
         <v>100</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>21</v>
@@ -2645,10 +2948,13 @@
         <v>132</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C135" s="1">
         <v>200</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>26</v>
@@ -2659,10 +2965,13 @@
         <v>133</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C136" s="1">
         <v>300</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>27</v>
@@ -2673,10 +2982,13 @@
         <v>134</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C137" s="1">
         <v>400</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>28</v>
@@ -2687,10 +2999,13 @@
         <v>135</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C138" s="1">
         <v>500</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>29</v>
@@ -2701,10 +3016,13 @@
         <v>136</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C139" s="1">
         <v>600</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>30</v>
@@ -2715,10 +3033,13 @@
         <v>137</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C140" s="1">
         <v>700</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>31</v>
@@ -2729,10 +3050,13 @@
         <v>138</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C141" s="1">
         <v>800</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>32</v>
@@ -2743,10 +3067,13 @@
         <v>139</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C142" s="1">
         <v>900</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>33</v>
@@ -2757,12 +3084,695 @@
         <v>140</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C143" s="1">
         <v>1000</v>
       </c>
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
       <c r="F143" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>141</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>142</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>143</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>144</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C147" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>145</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>146</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>147</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>148</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C151" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>149</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C152" s="1">
+        <v>9000000</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>150</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>151</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>152</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>153</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>154</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>155</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C158" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>156</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C159" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>157</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C160" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>158</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C161" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>159</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C162" s="1">
+        <v>9000000</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>160</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>161</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C164" s="1">
+        <v>100</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>162</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165" s="1">
+        <v>200</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>163</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C166" s="1">
+        <v>300</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>164</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C167" s="1">
+        <v>400</v>
+      </c>
+      <c r="E167" s="1">
+        <v>0</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>165</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168" s="1">
+        <v>500</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>166</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C169" s="1">
+        <v>600</v>
+      </c>
+      <c r="E169" s="1">
+        <v>0</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>167</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C170" s="1">
+        <v>700</v>
+      </c>
+      <c r="E170" s="1">
+        <v>0</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>168</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C171" s="1">
+        <v>800</v>
+      </c>
+      <c r="E171" s="1">
+        <v>0</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>169</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C172" s="1">
+        <v>900</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>170</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>171</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C174" s="1">
+        <v>100</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>172</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C175" s="1">
+        <v>200</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>173</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C176" s="1">
+        <v>300</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>174</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C177" s="1">
+        <v>400</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>175</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C178" s="1">
+        <v>500</v>
+      </c>
+      <c r="E178" s="1">
+        <v>0</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>176</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C179" s="1">
+        <v>600</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>177</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C180" s="1">
+        <v>700</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>178</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C181" s="1">
+        <v>800</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>179</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C182" s="1">
+        <v>900</v>
+      </c>
+      <c r="E182" s="1">
+        <v>0</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>180</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0</v>
+      </c>
+      <c r="F183" s="7" t="s">
         <v>34</v>
       </c>
     </row>
